--- a/eSocial/S1005.xlsx
+++ b/eSocial/S1005.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digital\Desktop\g2l\ProjectX\xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digital\Desktop\g2l\ProjectX\eSocial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB2B070-288E-4BF2-BC13-114327D341E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326ED68F-BA8B-4922-B383-EB3A8CE5A7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>XML</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>&lt;eSocial&lt;/eSocial&gt;</t>
+  </si>
+  <si>
+    <t>&lt;eSocial&gt;&lt;evtInfoEmpregador Id="ID123"&gt;&lt;/evtInfoEmpregador&gt;&lt;/eSocial&gt;</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,7 +378,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -383,7 +386,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -391,5 +394,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>